--- a/cost_analysis.xlsx
+++ b/cost_analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A_Soteriou\Documents\GitHub\Paper_COMIG_Reduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C36693-0F1C-43EB-A2A8-3DE98C6D858D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60198F9-79FE-43B0-9957-B33859C4BEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{028A3F64-A31E-4D17-BBF9-EF2C877A4758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>COST</t>
   </si>
@@ -72,9 +73,6 @@
     <t>16(BCR,S-R,Combos*)</t>
   </si>
   <si>
-    <t>6*</t>
-  </si>
-  <si>
     <t>8(Combo*)</t>
   </si>
   <si>
@@ -84,13 +82,88 @@
     <t>*combo of pairwise covers with S-R/BCR/Tin or S-R with BCR/Tin</t>
   </si>
   <si>
-    <t>*it's more than previous SOTA because I didn't run it with 0-aux, 6 here is 3-runs/1-aux. I'm pretty sure we can at least match previous SOTA if we run with 0-aux. It's not the first time this happened. Check eq.17 and 22, both 4-runs, one has 0-aux the other 1-aux which doubles the cost</t>
-  </si>
-  <si>
     <t>16(BCR)</t>
   </si>
   <si>
     <t>*combo of pairwise covers with S-R/BCR/Tin</t>
+  </si>
+  <si>
+    <t>4(BCR/Tin)</t>
+  </si>
+  <si>
+    <t>16(Combo*)</t>
+  </si>
+  <si>
+    <t>*combo of S-R and BCR/Tin</t>
+  </si>
+  <si>
+    <t>2(Tin)</t>
+  </si>
+  <si>
+    <t>Quadrinomials</t>
+  </si>
+  <si>
+    <t>64(S-R)</t>
+  </si>
+  <si>
+    <t>trinomials</t>
+  </si>
+  <si>
+    <t>13(Combo*)</t>
+  </si>
+  <si>
+    <t>*Combo of S-R and BCR (split on b1,b10 then quad the deg-8 term with 2-aux) we have 3 runs of 2-aux and 1 run of 0-aux</t>
+  </si>
+  <si>
+    <t>4(S-R)</t>
+  </si>
+  <si>
+    <t>*Combo of S-R and BCR/Tin</t>
+  </si>
+  <si>
+    <t>8(BCR,Tin,Combo*)</t>
+  </si>
+  <si>
+    <t>9*</t>
+  </si>
+  <si>
+    <t>*same thing with the aux's</t>
+  </si>
+  <si>
+    <t>8(S-R)</t>
+  </si>
+  <si>
+    <t>16(S-R,Combo*)</t>
+  </si>
+  <si>
+    <t>*Combo of pairwise covers with S-R</t>
+  </si>
+  <si>
+    <t>64(BCR,S-R,Combo*)</t>
+  </si>
+  <si>
+    <t>*Combo of pariwise covers with S-R</t>
+  </si>
+  <si>
+    <t>8(BCR,Tin)</t>
+  </si>
+  <si>
+    <t>11(Combo*)</t>
+  </si>
+  <si>
+    <t>18**</t>
+  </si>
+  <si>
+    <t>17**</t>
+  </si>
+  <si>
+    <t>*Combo of S-R with BCR/Tin (split on b5,b6), we have 3 runs with 0-aux and 1 run with 3-aux</t>
+  </si>
+  <si>
+    <t>*Combo of S-R with BCR/Tin</t>
+  </si>
+  <si>
+    <t>**incomplete (preserve &gt; 99.6% of the states), used to have a restriction on number of runs so it didn’t finish to get the whole spectrum. But again same issue with the useless aux's that just add to the cost, 9-runs/1-aux, it can definitely be done with no aux's for less than 17/18 runs! Can we match the SOTA though? maybe we need some more improvements on the RL first.</t>
   </si>
 </sst>
 </file>
@@ -122,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -165,10 +238,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -180,9 +253,93 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -192,10 +349,40 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -207,10 +394,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -224,49 +426,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -278,33 +437,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -317,14 +451,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,249 +841,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992B2045-5965-4959-9D3A-264349DAAAC4}">
-  <dimension ref="A1:E20"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="2">
         <v>64</v>
       </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="21">
         <v>7</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="18">
         <v>8</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21">
         <v>13</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>16</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="21">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
+        <v>16</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>16</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>64</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>64</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>64</v>
+      </c>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>64</v>
+      </c>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="18">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2">
+        <v>128</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="18">
+        <v>89</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="18">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="18">
+        <v>99</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="15">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>13</v>
-      </c>
-      <c r="B10" s="16">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="16">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>17</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>16</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="18">
+        <v>114</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2">
+        <v>64</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2">
+        <v>64</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="18">
+        <v>133</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="18">
+        <v>143</v>
+      </c>
+      <c r="B29" s="2">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2">
+        <v>16</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="18">
+        <v>149</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="17">
-        <v>16</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>27</v>
-      </c>
-      <c r="B12" s="16">
-        <v>7</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="16">
-        <v>16</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16">
-        <v>8</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="16">
-        <v>16</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>38</v>
-      </c>
-      <c r="B14" s="15">
-        <v>8</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="18">
+        <v>152</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2">
+        <v>64</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="18">
+        <v>162</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="18">
+        <v>165</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="24">
+        <v>168</v>
+      </c>
+      <c r="B35" s="25">
+        <v>2</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="25">
+        <v>4</v>
+      </c>
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -891,6 +1414,1301 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2751E575-1324-4FE1-85CB-C7CBB5E7C8CE}">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>